--- a/documents/test case.xlsx
+++ b/documents/test case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\Swagger Note API (Postman)\test_case_and_bug_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\Swagger Note API (Postman)\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8237D9-F80C-43C4-8E4A-8D9AC3D53BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504F822-45CD-4372-8B4A-03FDBB3DE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,9 +1267,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Attempt to Create Note with Invalid Authentication.</t>
   </si>
   <si>
     <r>
@@ -2736,10 +2733,6 @@
 Register User with Password below 6 characters.</t>
   </si>
   <si>
-    <t>(POST)
-Register with Password above 100 characters.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1&gt; Open Postman and create a new request and set the HTTP method to POST. 
 2&gt; Enter the register user endpoint URL </t>
@@ -6733,6 +6726,14 @@
   </si>
   <si>
     <t>TC_072</t>
+  </si>
+  <si>
+    <t>(POST)
+Register with Password above 30 characters.</t>
+  </si>
+  <si>
+    <t>(POST)
+Attempt to Create Note with Invalid Authentication.</t>
   </si>
 </sst>
 </file>
@@ -7307,10 +7308,10 @@
   <dimension ref="A1:AD1043"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7367,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -7440,10 +7441,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4" t="s">
@@ -7566,17 +7567,17 @@
         <v>13</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>96</v>
@@ -7610,16 +7611,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>102</v>
@@ -7656,16 +7657,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>101</v>
@@ -7702,13 +7703,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>77</v>
@@ -7748,16 +7749,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>245</v>
+        <v>446</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>99</v>
@@ -7794,16 +7795,16 @@
         <v>50</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>98</v>
@@ -7840,16 +7841,16 @@
         <v>51</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>430</v>
-      </c>
       <c r="F13" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
@@ -7880,37 +7881,37 @@
         <v>23</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>104</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M14" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
@@ -7934,37 +7935,37 @@
         <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>104</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K15" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M15" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
@@ -7988,37 +7989,37 @@
         <v>25</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K16" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M16" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
@@ -8042,37 +8043,37 @@
         <v>26</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K17" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M17" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
@@ -8096,37 +8097,37 @@
         <v>27</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>12</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
@@ -8150,16 +8151,16 @@
         <v>28</v>
       </c>
       <c r="C19" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>424</v>
-      </c>
       <c r="F19" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>105</v>
@@ -8196,16 +8197,16 @@
         <v>29</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>106</v>
@@ -8242,37 +8243,37 @@
         <v>30</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K21" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L21" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M21" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
@@ -8296,37 +8297,37 @@
         <v>31</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K22" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M22" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
@@ -8350,37 +8351,37 @@
         <v>33</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K23" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M23" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
@@ -8404,13 +8405,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>93</v>
@@ -8450,16 +8451,16 @@
         <v>35</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>109</v>
@@ -8496,13 +8497,13 @@
         <v>36</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>110</v>
@@ -8542,16 +8543,16 @@
         <v>37</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>112</v>
@@ -8567,7 +8568,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -8590,16 +8591,16 @@
         <v>39</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>280</v>
-      </c>
       <c r="G28" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>96</v>
@@ -8633,16 +8634,16 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>101</v>
@@ -8679,16 +8680,16 @@
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>113</v>
@@ -8725,37 +8726,37 @@
         <v>42</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K31" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M31" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="11"/>
@@ -8779,16 +8780,16 @@
         <v>43</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>103</v>
@@ -8825,16 +8826,16 @@
         <v>44</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>103</v>
@@ -8871,19 +8872,19 @@
         <v>45</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>96</v>
@@ -8917,16 +8918,16 @@
         <v>46</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>114</v>
@@ -8963,16 +8964,16 @@
         <v>47</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="F36" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>115</v>
@@ -9009,16 +9010,16 @@
         <v>48</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>116</v>
@@ -9055,13 +9056,13 @@
         <v>49</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>95</v>
@@ -9101,37 +9102,37 @@
         <v>52</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>315</v>
-      </c>
       <c r="F39" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>117</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>12</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
@@ -9155,16 +9156,16 @@
         <v>53</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>118</v>
@@ -9201,16 +9202,16 @@
         <v>54</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>119</v>
@@ -9247,16 +9248,16 @@
         <v>55</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="F42" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>119</v>
@@ -9293,16 +9294,16 @@
         <v>61</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>120</v>
@@ -9339,37 +9340,37 @@
         <v>56</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>12</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
@@ -9393,16 +9394,16 @@
         <v>57</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>121</v>
@@ -9439,16 +9440,16 @@
         <v>58</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>341</v>
-      </c>
       <c r="F46" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>122</v>
@@ -9485,19 +9486,19 @@
         <v>59</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>96</v>
@@ -9531,16 +9532,16 @@
         <v>60</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>108</v>
@@ -9577,16 +9578,16 @@
         <v>62</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>125</v>
@@ -9623,13 +9624,13 @@
         <v>63</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>127</v>
@@ -9669,37 +9670,37 @@
         <v>65</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K51" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L51" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L51" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M51" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="2"/>
@@ -9723,13 +9724,13 @@
         <v>66</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>129</v>
@@ -9769,13 +9770,13 @@
         <v>67</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>131</v>
@@ -9815,19 +9816,19 @@
         <v>68</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>96</v>
@@ -9861,37 +9862,37 @@
         <v>69</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K55" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L55" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M55" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N55" s="14"/>
       <c r="O55" s="2"/>
@@ -9914,19 +9915,19 @@
         <v>70</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>96</v>
@@ -9960,19 +9961,19 @@
         <v>71</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>96</v>
@@ -10006,17 +10007,17 @@
         <v>72</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>96</v>
@@ -10050,19 +10051,19 @@
         <v>73</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>96</v>
@@ -10096,19 +10097,19 @@
         <v>74</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H60" s="16" t="s">
         <v>96</v>
@@ -10142,19 +10143,19 @@
         <v>75</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>96</v>
@@ -10185,40 +10186,40 @@
     <row r="62" spans="1:28" ht="209.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J62" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K62" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="K62" s="18" t="s">
+      <c r="L62" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L62" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="M62" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N62" s="14"/>
       <c r="O62" s="2"/>
@@ -10232,22 +10233,22 @@
     <row r="63" spans="1:28" ht="187.2">
       <c r="A63" s="1"/>
       <c r="B63" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>96</v>
@@ -10272,22 +10273,22 @@
     <row r="64" spans="1:28" ht="327.60000000000002">
       <c r="A64" s="1"/>
       <c r="B64" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F64" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>175</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>96</v>
@@ -10312,22 +10313,22 @@
     <row r="65" spans="1:22" ht="343.2">
       <c r="A65" s="1"/>
       <c r="B65" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>96</v>
@@ -10352,22 +10353,22 @@
     <row r="66" spans="1:22" ht="187.2">
       <c r="A66" s="1"/>
       <c r="B66" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>96</v>
@@ -10392,22 +10393,22 @@
     <row r="67" spans="1:22" ht="202.8">
       <c r="A67" s="1"/>
       <c r="B67" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D67" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F67" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F67" s="24" t="s">
+      <c r="G67" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>184</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>96</v>
@@ -10432,22 +10433,22 @@
     <row r="68" spans="1:22" ht="327.60000000000002">
       <c r="A68" s="1"/>
       <c r="B68" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>96</v>
@@ -10472,22 +10473,22 @@
     <row r="69" spans="1:22" ht="343.2">
       <c r="A69" s="1"/>
       <c r="B69" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>96</v>
@@ -10512,22 +10513,22 @@
     <row r="70" spans="1:22" ht="156">
       <c r="A70" s="1"/>
       <c r="B70" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>96</v>
@@ -10552,20 +10553,20 @@
     <row r="71" spans="1:22" ht="140.4">
       <c r="A71" s="1"/>
       <c r="B71" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>96</v>
@@ -10589,22 +10590,22 @@
     <row r="72" spans="1:22" ht="173.4" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D72" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F72" s="24" t="s">
+      <c r="G72" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>193</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>96</v>
@@ -10628,22 +10629,22 @@
     <row r="73" spans="1:22" ht="171.6">
       <c r="A73" s="1"/>
       <c r="B73" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D73" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G73" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>96</v>
@@ -10667,22 +10668,22 @@
     <row r="74" spans="1:22" ht="171.6">
       <c r="A74" s="1"/>
       <c r="B74" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>96</v>
@@ -10706,16 +10707,16 @@
     <row r="75" spans="1:22" ht="124.8">
       <c r="A75" s="1"/>
       <c r="B75" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24" t="s">
@@ -10743,22 +10744,22 @@
     <row r="76" spans="1:22" ht="124.8">
       <c r="A76" s="1"/>
       <c r="B76" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>96</v>
@@ -10782,22 +10783,22 @@
     <row r="77" spans="1:22" ht="124.8">
       <c r="A77" s="1"/>
       <c r="B77" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D77" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>96</v>
@@ -10821,19 +10822,19 @@
     <row r="78" spans="1:22" ht="124.8">
       <c r="A78" s="1"/>
       <c r="B78" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>108</v>
